--- a/Cleaned_DataSets/500ms_Adaption/CA3 parameters for PCA_500ms_Clean.xlsx
+++ b/Cleaned_DataSets/500ms_Adaption/CA3 parameters for PCA_500ms_Clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dennis.tabuena\Gladstone Dropbox\Dennis Tabuena\0_Projects\_Hyper+Crisper\Cluster Analysis\Cleaned_DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF84F44-51F4-4B62-8CC4-57C0CF590E66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1660128C-F350-4CEA-81FF-32A812441B8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{F8DBF2A4-ADA9-3F4A-9A93-E07330314B15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{F8DBF2A4-ADA9-3F4A-9A93-E07330314B15}"/>
   </bookViews>
   <sheets>
     <sheet name="apoE4-KI 7-9mo" sheetId="1" r:id="rId1"/>
@@ -7045,8 +7045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DB8F72-8322-0B44-9FA6-D645F077DC23}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -7202,7 +7202,7 @@
         <v>0.45711580000000002</v>
       </c>
       <c r="P3">
-        <v>34.929580999999999</v>
+        <v>13.833600000000001</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -7402,7 +7402,7 @@
         <v>0.55698597000000005</v>
       </c>
       <c r="P7">
-        <v>23.659372000000001</v>
+        <v>13.160299999999999</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -7752,7 +7752,7 @@
         <v>0.69811838999999998</v>
       </c>
       <c r="P14">
-        <v>27.878665999999999</v>
+        <v>8.3508300999999996</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -7802,7 +7802,7 @@
         <v>0.57982409000000001</v>
       </c>
       <c r="P15">
-        <v>30.110395</v>
+        <v>5.0825700999999999</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -7852,7 +7852,7 @@
         <v>0.66065954999999998</v>
       </c>
       <c r="P16">
-        <v>44.006191000000001</v>
+        <v>10.398099999999999</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -8055,8 +8055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC90569-C691-D141-B225-19B80C078FF5}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -8811,7 +8811,7 @@
         <v>0.66975658999999998</v>
       </c>
       <c r="P15">
-        <v>18.062002</v>
+        <v>2.8641800000000002</v>
       </c>
     </row>
     <row r="16" spans="1:16">
